--- a/dados/analises/2024/excel/02-ranking-classificacao-autoria-tdn.xlsx
+++ b/dados/analises/2024/excel/02-ranking-classificacao-autoria-tdn.xlsx
@@ -7,11 +7,11 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="uf-qtd" sheetId="1" r:id="rId1"/>
-    <sheet name="uf-tot-arrecad" sheetId="2" r:id="rId2"/>
-    <sheet name="uf-avg-arrecad" sheetId="3" r:id="rId3"/>
-    <sheet name="uf-max-arrecad" sheetId="4" r:id="rId4"/>
-    <sheet name="uf-tx-sucesso" sheetId="5" r:id="rId5"/>
+    <sheet name="qtd" sheetId="1" r:id="rId1"/>
+    <sheet name="tot-arrecad" sheetId="2" r:id="rId2"/>
+    <sheet name="avg-arrecad" sheetId="3" r:id="rId3"/>
+    <sheet name="max-arrecad" sheetId="4" r:id="rId4"/>
+    <sheet name="tx-sucesso" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -23,7 +23,7 @@
     <t>autor_classificacao</t>
   </si>
   <si>
-    <t>qty</t>
+    <t>qtd</t>
   </si>
   <si>
     <t>Masculino</t>
